--- a/data/example/data.xlsx
+++ b/data/example/data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/workspace/git/TT/ProjectAssignment_github/data/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/workspace/git/TT/GroupFormation/data/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF921CC-3B3A-1F4A-8ED1-B71CADF2FB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D203C-AB0A-9F4E-99EE-F49578EC3251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="29260" windowWidth="25600" windowHeight="15540" xr2:uid="{F2E409BC-B582-D74C-BAE0-0C8E5B2B8BB2}"/>
+    <workbookView xWindow="13360" yWindow="29260" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{F2E409BC-B582-D74C-BAE0-0C8E5B2B8BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
     <sheet name="dtypes" sheetId="2" r:id="rId2"/>
     <sheet name="projects" sheetId="3" r:id="rId3"/>
+    <sheet name="types" sheetId="4" r:id="rId4"/>
+    <sheet name="restrictions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>grp_id</t>
   </si>
@@ -183,6 +185,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Pedagogy</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -556,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF326E6-79A5-774B-BEA5-781E6AB1338E}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -960,4 +968,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEEAFAC-72B4-1245-BD57-18BA4F0F1782}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B393CE27-6AD3-CF41-8F20-6F36CF2A0C9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/example/data.xlsx
+++ b/data/example/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/workspace/git/TT/GroupFormation/data/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/march/workspace/git/TT/GroupFormation/data/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D203C-AB0A-9F4E-99EE-F49578EC3251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387B544-D5E2-EB41-A0E7-0B8D8D995788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="29260" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{F2E409BC-B582-D74C-BAE0-0C8E5B2B8BB2}"/>
+    <workbookView xWindow="13360" yWindow="29440" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{F2E409BC-B582-D74C-BAE0-0C8E5B2B8BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>grp_id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
   </si>
 </sst>
 </file>
@@ -784,15 +787,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6316F21F-1285-E449-8BB2-1157DE6D8A0B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -802,8 +808,11 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -813,8 +822,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -824,8 +836,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -835,8 +850,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -846,8 +864,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -857,8 +878,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -867,6 +891,9 @@
       </c>
       <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEEAFAC-72B4-1245-BD57-18BA4F0F1782}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
